--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,13 +112,13 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>Data/character/Player.prefab</t>
+    <t>Player.prefab</t>
   </si>
   <si>
     <t>10101,10102</t>
   </si>
   <si>
-    <t>Data/character/boss/boss_01.prefab</t>
+    <t>boss/boss_01.prefab</t>
   </si>
   <si>
     <t>20001,20002</t>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,37 +145,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +173,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -227,35 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +252,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -296,6 +296,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,30 +344,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,6 +374,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,24 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +544,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -567,36 +587,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,10 +1088,10 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -115,13 +115,13 @@
     <t>Player.prefab</t>
   </si>
   <si>
-    <t>10101,10102</t>
+    <t>10101,10102,10103,10104</t>
   </si>
   <si>
     <t>boss/boss_01.prefab</t>
   </si>
   <si>
-    <t>20001,20002</t>
+    <t>20001,20002,20003,20004</t>
   </si>
 </sst>
 </file>
@@ -131,8 +131,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +145,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,9 +211,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +241,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,21 +265,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,66 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,6 +296,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,25 +368,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,121 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,50 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,18 +1091,22 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="36.5" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+    <col min="13" max="13" width="35.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">

--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>Player.prefab</t>
   </si>
   <si>
-    <t>10101,10102,10103,10104</t>
+    <t>10101,10102,10103,10104,10105</t>
   </si>
   <si>
     <t>boss/boss_01.prefab</t>
@@ -130,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,9 +151,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,33 +234,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,20 +249,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,65 +272,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,181 +302,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,31 +572,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,190 +587,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,19 +144,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -166,14 +181,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,32 +203,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,14 +249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -251,6 +258,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -258,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,22 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +296,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,169 +344,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,30 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,6 +529,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,8 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,16 +605,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,112 +623,112 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,7 +1091,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1337,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>3</v>

--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -129,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -144,7 +144,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,13 +186,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -171,47 +202,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,23 +250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,14 +274,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -273,15 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,181 +296,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,6 +519,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,24 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,6 +560,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,36 +587,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,34 +605,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,97 +644,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1296,10 +1296,10 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -1337,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>

--- a/Tools/ExportDataTable/Excel/NPCProperty.xlsx
+++ b/Tools/ExportDataTable/Excel/NPCProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>20001,20002,20003,20004</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HeroActor.prefab</t>
+  </si>
+  <si>
+    <t>10301,10302,10303</t>
+  </si>
+  <si>
+    <t>EnemyActor.prefab</t>
+  </si>
+  <si>
+    <t>10401,10402,10403</t>
   </si>
 </sst>
 </file>
@@ -129,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -144,82 +162,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -249,39 +276,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,168 +314,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,18 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,20 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,11 +540,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +558,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,23 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,15 +1104,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
@@ -1355,6 +1373,88 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
